--- a/src/templates/receipt.xlsx
+++ b/src/templates/receipt.xlsx
@@ -7,19 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$B$2:$AA$18</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
-  <si>
-    <t>*** ООО Телетрансстрой ***</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>г.Емва</t>
   </si>
@@ -48,22 +46,22 @@
     <t>СУММА ОПЛАТЫ:</t>
   </si>
   <si>
-    <t>ПЕНЯ:</t>
-  </si>
-  <si>
     <t>ИТОГО:</t>
   </si>
   <si>
     <t>-----------------------------------------------------------------------------------</t>
   </si>
   <si>
-    <t xml:space="preserve">Кассир ______________ </t>
-  </si>
-  <si>
     <t>В СЛУЧАЕ ПРОСРОЧКИ АБОНЕНТ</t>
   </si>
   <si>
     <t>БУДЕТ ОТКЛЮЧЕН ОТ СЕТИ КТВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО Телетрансстрой </t>
+  </si>
+  <si>
+    <t>ООО Телетрансстрой</t>
   </si>
 </sst>
 </file>
@@ -87,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -206,18 +204,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -227,23 +249,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -251,46 +279,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,431 +598,427 @@
   <dimension ref="B1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+      <selection activeCell="B1" sqref="B1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="27" width="3.7109375" customWidth="1"/>
+    <col min="2" max="27" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="2" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="3"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="5" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="7"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="7"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="7"/>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="7"/>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="12"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="7"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="11"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="12"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="5" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
+      <c r="U11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" s="6" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA11" s="11"/>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="13" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="11"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="11"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="11"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1034,25 +1031,25 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="17"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="18"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1064,7 +1061,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="26"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
@@ -1077,11 +1074,11 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
-      <c r="AA16" s="19"/>
+      <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
-        <v>14</v>
+      <c r="B17" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1094,9 +1091,9 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="26"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
@@ -1109,72 +1106,72 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
-      <c r="AA17" s="19"/>
+      <c r="AA17" s="18"/>
     </row>
     <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="22"/>
+      <c r="B18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="O15:AA15"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="O17:AA17"/>
+    <mergeCell ref="O18:AA18"/>
+    <mergeCell ref="O12:U12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B16:N16"/>
     <mergeCell ref="O16:AA16"/>
     <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="O17:AA17"/>
-    <mergeCell ref="O18:AA18"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="O12:U12"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="O15:AA15"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="B12:H12"/>
     <mergeCell ref="V12:Y12"/>
     <mergeCell ref="O13:U13"/>
     <mergeCell ref="V13:Y13"/>
     <mergeCell ref="O14:U14"/>
     <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="J8:N8"/>
     <mergeCell ref="O8:V8"/>
     <mergeCell ref="W8:AA8"/>
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="O10:AA10"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="O4:AA4"/>
@@ -1191,29 +1188,6 @@
     <mergeCell ref="W3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>